--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\포트폴리오\내배캠\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E62F48-9DED-4866-A60B-D19ABD248D22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CD9F4-93FA-4EE8-98CA-9DB2EF209EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>key</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MaxBullet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RecoilForce</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -169,12 +165,107 @@
   </si>
   <si>
     <t>RPG7</t>
+  </si>
+  <si>
+    <t>IsAutpmatic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMagzine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 가격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알 속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectilesPerShot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격당 나가는 탄환 개수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알 개당 가격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 방식 (T: 자동, F: 단발)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;EWeaponType&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shotgun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launcher</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machinegun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +329,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +355,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,30 +681,32 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F39"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,693 +714,1035 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>10101</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.8</v>
       </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="6">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>150</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>10102</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>150</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.75</v>
       </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="6">
         <v>0.9</v>
       </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>250</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>10103</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
         <v>60</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>45</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>150</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.6</v>
       </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="6">
         <v>0.8</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>10104</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
         <v>65</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>150</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="6">
         <v>0.7</v>
       </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>400</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>10201</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>210</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="6">
         <v>0.7</v>
       </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>10202</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
         <v>120</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>100</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>210</v>
       </c>
-      <c r="G9">
-        <v>0.5</v>
-      </c>
       <c r="H9">
         <v>0.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="6">
         <v>0.65</v>
       </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1200</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>10203</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
         <v>125</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>100</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>210</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.8</v>
       </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>0.5</v>
       </c>
       <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1400</v>
+      </c>
+      <c r="P10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10204</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
         <v>130</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>35</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>245</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.75</v>
       </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>0.5</v>
       </c>
       <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>2</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1500</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10205</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
         <v>140</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>120</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>35</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>245</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.7</v>
       </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="6">
         <v>0.45</v>
       </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1600</v>
+      </c>
+      <c r="P12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10206</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>150</v>
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
       </c>
       <c r="D13">
         <v>150</v>
       </c>
       <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
         <v>40</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>280</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.9</v>
       </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="6">
         <v>0.6</v>
       </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>10207</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
         <v>170</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>150</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>40</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>280</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.85</v>
       </c>
-      <c r="H14">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>0.5</v>
       </c>
       <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2200</v>
+      </c>
+      <c r="P14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10303</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
       <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
         <v>0.8</v>
       </c>
-      <c r="H15">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="6">
         <v>5</v>
       </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="N15" s="6">
+        <v>8</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1300</v>
+      </c>
+      <c r="P15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>10304</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
         <v>30</v>
       </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16">
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>140</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.75</v>
       </c>
-      <c r="H16">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="N16" s="6">
+        <v>10</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2500</v>
+      </c>
+      <c r="P16" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>10401</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
         <v>300</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>200</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>120</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.9</v>
       </c>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
+      <c r="I17">
+        <v>0.5</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1600</v>
+      </c>
+      <c r="P17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>10402</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
         <v>400</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>200</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>140</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.85</v>
       </c>
-      <c r="H18">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
+      <c r="I18">
+        <v>0.5</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2300</v>
+      </c>
+      <c r="P18" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>10501</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
         <v>200</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
       </c>
       <c r="E19">
         <v>100</v>
       </c>
       <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
         <v>500</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.7</v>
       </c>
-      <c r="H19">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="6">
         <v>0.65</v>
       </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>2500</v>
+      </c>
+      <c r="P19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>10502</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
         <v>800</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>250</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>15</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.6</v>
       </c>
-      <c r="H20">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
+      <c r="I20">
+        <v>0.5</v>
       </c>
       <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
         <v>10</v>
       </c>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="L20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>2500</v>
+      </c>
+      <c r="P20" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F21" s="9"/>
+      <c r="J21" s="6"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="J22" s="6"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J23" s="6"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CD9F4-93FA-4EE8-98CA-9DB2EF209EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB89093-A8BE-48C4-A1D4-9702690B14C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MaxMagzine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Price</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>Machinegun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBullet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -747,13 +747,13 @@
         <v>41</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -794,16 +794,16 @@
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -841,19 +841,19 @@
         <v>21</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -914,7 +914,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -964,7 +964,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -1014,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>65</v>
@@ -1064,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1114,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>120</v>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>125</v>
@@ -1214,7 +1214,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>130</v>
@@ -1264,7 +1264,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>140</v>
@@ -1314,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -1364,7 +1364,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>170</v>
@@ -1414,7 +1414,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -1464,7 +1464,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -1514,7 +1514,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>300</v>
@@ -1564,7 +1564,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1614,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -1664,7 +1664,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>800</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB89093-A8BE-48C4-A1D4-9702690B14C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CD7B3-2F48-42DE-9DDF-26306E7FAEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -684,7 +684,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CD7B3-2F48-42DE-9DDF-26306E7FAEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C0766-3538-4910-8013-801E657C7AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -684,7 +684,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>10502</v>
+        <v>10602</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C0766-3538-4910-8013-801E657C7AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62C26D-EFAD-4F7C-A025-B0A1432A452D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -684,7 +684,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A4" sqref="A4:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62C26D-EFAD-4F7C-A025-B0A1432A452D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F38773-7E01-4D4D-86A9-701962486FC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -683,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>10602</v>
+        <v>10601</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F38773-7E01-4D4D-86A9-701962486FC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A53F00-A6DE-45B2-9356-C8C2299EB679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -329,7 +329,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,7 +360,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +690,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B4" sqref="B4:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -860,43 +866,43 @@
       <c r="A4" s="5">
         <v>10101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="10">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>0.8</v>
       </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="11">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
         <v>1</v>
       </c>
       <c r="O4">
@@ -910,43 +916,43 @@
       <c r="A5" s="5">
         <v>10102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="10">
+        <v>83</v>
+      </c>
+      <c r="E5" s="10">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>150</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>0.75</v>
       </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="11">
         <v>0.9</v>
       </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
         <v>1.2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="10">
         <v>1</v>
       </c>
       <c r="O5">
@@ -960,43 +966,43 @@
       <c r="A6" s="5">
         <v>10103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="10">
+        <v>85</v>
+      </c>
+      <c r="E6" s="10">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>150</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>0.6</v>
       </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="11">
         <v>0.8</v>
       </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <v>1.4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="10">
         <v>1</v>
       </c>
       <c r="O6">
@@ -1010,43 +1016,43 @@
       <c r="A7" s="5">
         <v>10104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="10">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>150</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="11">
         <v>0.7</v>
       </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
         <v>1.8</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="10">
         <v>1</v>
       </c>
       <c r="O7">
@@ -1060,43 +1066,43 @@
       <c r="A8" s="5">
         <v>10201</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
+        <v>90</v>
+      </c>
+      <c r="E8" s="10">
         <v>100</v>
       </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>210</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="11">
         <v>0.7</v>
       </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="10">
         <v>1</v>
       </c>
       <c r="O8">
@@ -1110,43 +1116,43 @@
       <c r="A9" s="5">
         <v>10202</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D9">
-        <v>120</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="10">
         <v>100</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="F9" s="10">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>210</v>
       </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="H9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="11">
         <v>0.65</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
         <v>2</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="10">
         <v>1</v>
       </c>
       <c r="O9">
@@ -1160,43 +1166,43 @@
       <c r="A10" s="5">
         <v>10203</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10">
-        <v>125</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="10">
+        <v>110</v>
+      </c>
+      <c r="E10" s="10">
         <v>100</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="10">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>210</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="10">
         <v>0.8</v>
       </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="I10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11">
         <v>2</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="11">
         <v>1</v>
       </c>
       <c r="O10" s="6">
@@ -1210,43 +1216,43 @@
       <c r="A11" s="5">
         <v>10204</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D11">
-        <v>130</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="10">
+        <v>125</v>
+      </c>
+      <c r="E11" s="10">
         <v>100</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="10">
         <v>35</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>245</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="10">
         <v>0.75</v>
       </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="I11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
         <v>2</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="11">
         <v>1</v>
       </c>
       <c r="O11" s="6">
@@ -1260,43 +1266,43 @@
       <c r="A12" s="5">
         <v>10205</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12">
-        <v>140</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="10">
+        <v>145</v>
+      </c>
+      <c r="E12" s="10">
         <v>120</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="10">
         <v>35</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>245</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="10">
         <v>0.7</v>
       </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="I12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="11">
         <v>0.45</v>
       </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11">
         <v>2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="11">
         <v>1</v>
       </c>
       <c r="O12" s="6">
@@ -1310,43 +1316,43 @@
       <c r="A13" s="5">
         <v>10206</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
+        <v>160</v>
+      </c>
+      <c r="E13" s="10">
         <v>150</v>
       </c>
-      <c r="E13">
-        <v>150</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <v>40</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>280</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <v>0.9</v>
       </c>
-      <c r="I13">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="11">
         <v>0.6</v>
       </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11">
         <v>2</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="11">
         <v>1</v>
       </c>
       <c r="O13" s="6">
@@ -1360,43 +1366,43 @@
       <c r="A14" s="5">
         <v>10207</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <v>170</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="10">
         <v>150</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="10">
         <v>40</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="10">
         <v>280</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="10">
         <v>0.85</v>
       </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="I14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11">
         <v>2</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="11">
         <v>1</v>
       </c>
       <c r="O14" s="6">
@@ -1410,43 +1416,43 @@
       <c r="A15" s="5">
         <v>10303</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="10">
         <v>20</v>
       </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="10">
         <v>80</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="10">
         <v>0.8</v>
       </c>
-      <c r="I15">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="11">
         <v>5</v>
       </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>1.5</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="11">
         <v>8</v>
       </c>
       <c r="O15" s="6">
@@ -1460,43 +1466,43 @@
       <c r="A16" s="5">
         <v>10304</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="10">
+        <v>120</v>
+      </c>
+      <c r="E16" s="10">
         <v>30</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="10">
         <v>7</v>
       </c>
-      <c r="G16">
-        <v>140</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="10">
+        <v>84</v>
+      </c>
+      <c r="H16" s="10">
         <v>0.75</v>
       </c>
-      <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="11">
         <v>3</v>
       </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <v>1.7</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="11">
         <v>10</v>
       </c>
       <c r="O16" s="6">
@@ -1510,43 +1516,43 @@
       <c r="A17" s="5">
         <v>10401</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D17">
-        <v>300</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="10">
         <v>200</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="10">
+        <v>200</v>
+      </c>
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="10">
         <v>120</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="10">
         <v>0.9</v>
       </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="I17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>3</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="11">
         <v>1</v>
       </c>
       <c r="O17" s="6">
@@ -1560,43 +1566,43 @@
       <c r="A18" s="5">
         <v>10402</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D18">
-        <v>400</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="10">
+        <v>250</v>
+      </c>
+      <c r="E18" s="10">
         <v>200</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="10">
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>140</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="10">
         <v>0.85</v>
       </c>
-      <c r="I18">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="I18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
         <v>3</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="11">
         <v>1</v>
       </c>
       <c r="O18" s="6">
@@ -1610,43 +1616,43 @@
       <c r="A19" s="5">
         <v>10501</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D19">
-        <v>200</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="10">
+        <v>135</v>
+      </c>
+      <c r="E19" s="10">
         <v>100</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="10">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="10">
         <v>500</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="10">
         <v>0.7</v>
       </c>
-      <c r="I19">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="11">
         <v>0.65</v>
       </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="11">
         <v>1</v>
       </c>
       <c r="O19" s="6">
@@ -1660,43 +1666,43 @@
       <c r="A20" s="5">
         <v>10601</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D20">
-        <v>800</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="10">
+        <v>700</v>
+      </c>
+      <c r="E20" s="10">
         <v>250</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
         <v>15</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="10">
         <v>0.6</v>
       </c>
-      <c r="I20">
-        <v>0.5</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="I20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
         <v>10</v>
       </c>
-      <c r="L20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="L20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
         <v>1.3</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="11">
         <v>1</v>
       </c>
       <c r="O20" s="6">

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A53F00-A6DE-45B2-9356-C8C2299EB679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989686A2-65A8-4E90-8C41-E7609F582B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="10">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E8" s="10">
         <v>100</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989686A2-65A8-4E90-8C41-E7609F582B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0757F79-4F4B-4E02-8478-14307558379F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>총알 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ProjectilesPerShot</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>MaxBullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M4" sqref="M4:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -753,13 +753,13 @@
         <v>41</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -847,19 +847,19 @@
         <v>21</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10">
         <v>40</v>
@@ -899,8 +899,8 @@
       <c r="L4" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="11">
-        <v>1</v>
+      <c r="M4">
+        <v>2</v>
       </c>
       <c r="N4" s="10">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="10">
         <v>83</v>
@@ -949,7 +949,7 @@
       <c r="L5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5">
         <v>1.2</v>
       </c>
       <c r="N5" s="10">
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10">
         <v>85</v>
@@ -999,7 +999,7 @@
       <c r="L6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6">
         <v>1.4</v>
       </c>
       <c r="N6" s="10">
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10">
         <v>90</v>
@@ -1049,8 +1049,8 @@
       <c r="L7" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="11">
-        <v>1.8</v>
+      <c r="M7">
+        <v>3</v>
       </c>
       <c r="N7" s="10">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10">
         <v>97</v>
@@ -1099,8 +1099,8 @@
       <c r="L8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="11">
-        <v>2</v>
+      <c r="M8">
+        <v>3.5</v>
       </c>
       <c r="N8" s="10">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10">
         <v>100</v>
@@ -1149,8 +1149,8 @@
       <c r="L9" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="11">
-        <v>2</v>
+      <c r="M9">
+        <v>4</v>
       </c>
       <c r="N9" s="10">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10">
         <v>110</v>
@@ -1199,8 +1199,8 @@
       <c r="L10" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M10" s="11">
-        <v>2</v>
+      <c r="M10">
+        <v>4.2</v>
       </c>
       <c r="N10" s="11">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10">
         <v>125</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="11">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N11" s="11">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10">
         <v>145</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" s="11">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10">
         <v>160</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="11">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N13" s="11">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10">
         <v>170</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14" s="11">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="10">
         <v>100</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="N15" s="11">
         <v>8</v>
@@ -1470,7 +1470,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="10">
         <v>120</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="N16" s="11">
         <v>10</v>
@@ -1520,7 +1520,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10">
         <v>200</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="N17" s="11">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="10">
         <v>250</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="N18" s="11">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="10">
         <v>135</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="11">
-        <v>2.2999999999999998</v>
+        <v>7</v>
       </c>
       <c r="N19" s="11">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="10">
         <v>700</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="N20" s="11">
         <v>1</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0757F79-4F4B-4E02-8478-14307558379F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C3912-4EA5-453B-911B-87BA95259927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -690,13 +690,13 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -710,6 +710,7 @@
     <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C3912-4EA5-453B-911B-87BA95259927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAAD44-CFA4-41BC-860A-6DA139C26318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -924,7 +924,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="10">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E5" s="10">
         <v>40</v>
@@ -974,7 +974,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="10">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E6" s="10">
         <v>45</v>
@@ -1024,7 +1024,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="10">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E7" s="10">
         <v>50</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAAD44-CFA4-41BC-860A-6DA139C26318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C8BD7-8E12-4BAC-8D5C-741AEA9A90FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -924,7 +924,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="10">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E5" s="10">
         <v>40</v>
@@ -974,7 +974,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="10">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E6" s="10">
         <v>45</v>
@@ -1024,7 +1024,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="10">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E7" s="10">
         <v>50</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/WeaponInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C8BD7-8E12-4BAC-8D5C-741AEA9A90FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180676EE-75AB-4873-9852-F61906AC6DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{E2949BBB-A766-4786-82E2-6C450ECBE76F}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1074,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="10">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E8" s="10">
         <v>100</v>
@@ -1124,7 +1124,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="10">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E9" s="10">
         <v>100</v>
@@ -1174,7 +1174,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E10" s="10">
         <v>100</v>
